--- a/BattleFieldTour.xlsx
+++ b/BattleFieldTour.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08ce774be299533a/Documents/GitHub/voila-ors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E733D6F-ACD2-4D74-8E9E-0204275C564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680630B-E2BC-4F19-85B2-BCF499E3754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3180" windowWidth="24240" windowHeight="13140" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
+    <workbookView xWindow="9675" yWindow="5130" windowWidth="18000" windowHeight="9300" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,6 +711,8 @@
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="45.85546875" customWidth="1"/>
     <col min="6" max="6" width="122.7109375" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>

--- a/BattleFieldTour.xlsx
+++ b/BattleFieldTour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08ce774be299533a/Documents/GitHub/voila-ors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\Jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680630B-E2BC-4F19-85B2-BCF499E3754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F367630E-467E-46C8-9618-4C5B5823E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="5130" windowWidth="18000" windowHeight="9300" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
+    <workbookView xWindow="38175" yWindow="2565" windowWidth="28800" windowHeight="15435" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>Location</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>Flanders Field Cemetery</t>
-  </si>
-  <si>
     <t>La Ferte Sous Jouarre Memorial</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>LeCateauBattleMap.png</t>
-  </si>
-  <si>
     <t>SancourtBritishCemetery.png</t>
   </si>
   <si>
@@ -237,18 +231,12 @@
     <t>LoosMemorial.png</t>
   </si>
   <si>
-    <t>FlandersCemetery.png</t>
-  </si>
-  <si>
     <t>MeninGate.png</t>
   </si>
   <si>
     <t>JunoBeach.png</t>
   </si>
   <si>
-    <t>SanctuaryWoods.png</t>
-  </si>
-  <si>
     <t>Hill62.png</t>
   </si>
   <si>
@@ -294,9 +282,6 @@
     <t>Largest Crater in WWI</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Paree</t>
   </si>
   <si>
@@ -319,6 +304,63 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>MBSPrefix</t>
+  </si>
+  <si>
+    <t>MapRef</t>
+  </si>
+  <si>
+    <t>suffolkmemorial.png</t>
+  </si>
+  <si>
+    <t>The Brooding Soldier</t>
+  </si>
+  <si>
+    <t>BroodingSoldier.png</t>
+  </si>
+  <si>
+    <t>Canadian Memorial site of first gas attacks</t>
+  </si>
+  <si>
+    <t>Hill62Museum.png</t>
+  </si>
+  <si>
+    <t>Cloth Hall Museum Ypres</t>
+  </si>
+  <si>
+    <t>Medieval Building in Ypres</t>
+  </si>
+  <si>
+    <t>https://www.afar.com/places/cloth-hall-ieper</t>
+  </si>
+  <si>
+    <t>ClothHall.png</t>
+  </si>
+  <si>
+    <t>Typhoon Memorial</t>
+  </si>
+  <si>
+    <t>TyphoonMemorial.png</t>
+  </si>
+  <si>
+    <t>https://www.gallery.ca/collection/artwork/first-canadian-division-memorial-east-of-thelus-pas-de-calais-france</t>
+  </si>
+  <si>
+    <t>FirstCanDivMemorialThelus.png</t>
+  </si>
+  <si>
+    <t>Thelus</t>
+  </si>
+  <si>
+    <t>1st Cdn Division Memorial</t>
+  </si>
+  <si>
+    <t>Typhoon Memorial Bocage</t>
+  </si>
+  <si>
+    <t>http://johnwfrost.com/typhoon-memorial.htm</t>
   </si>
 </sst>
 </file>
@@ -380,12 +422,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1E1DDB-151E-4246-B5E7-C8D6B6A8244D}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,32 +759,39 @@
     <col min="5" max="5" width="45.85546875" customWidth="1"/>
     <col min="6" max="6" width="122.7109375" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -755,18 +805,18 @@
         <v>2.4764906999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>5364</v>
@@ -778,16 +828,16 @@
         <v>3.1173758999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -795,24 +845,24 @@
         <v>5365</v>
       </c>
       <c r="C4">
-        <v>49.207423200000001</v>
+        <v>49.1837205</v>
       </c>
       <c r="D4">
-        <v>5.4245709</v>
+        <v>5.4300438</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
         <v>5366</v>
@@ -824,16 +874,16 @@
         <v>3.5275259999999999</v>
       </c>
       <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -847,16 +897,16 @@
         <v>3.1841254000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -870,18 +920,18 @@
         <v>2.7264789999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3">
         <v>5369</v>
@@ -893,18 +943,18 @@
         <v>2.6973836000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>5370</v>
@@ -916,16 +966,16 @@
         <v>2.6869944000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -939,344 +989,418 @@
         <v>2.6460765999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3">
         <v>5372</v>
       </c>
       <c r="C11">
-        <v>50.379591300000001</v>
+        <v>50.402595300000002</v>
       </c>
       <c r="D11">
-        <v>2.7717847</v>
+        <v>2.7117531000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
+        <v>106</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3">
         <v>5373</v>
       </c>
       <c r="C12">
-        <v>50.452833499999997</v>
+        <v>50.379591300000001</v>
       </c>
       <c r="D12">
-        <v>2.7983763000000001</v>
+        <v>2.7717847</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3">
         <v>5374</v>
       </c>
       <c r="C13">
-        <v>50.460161399999997</v>
+        <v>50.452833499999997</v>
       </c>
       <c r="D13">
-        <v>2.7687267000000002</v>
+        <v>2.7983763000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>5375</v>
       </c>
       <c r="C14">
-        <v>50.8738253</v>
+        <v>50.460161399999997</v>
       </c>
       <c r="D14">
-        <v>3.4516119999999999</v>
+        <v>2.7687267000000002</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3">
         <v>5376</v>
       </c>
       <c r="C15">
-        <v>50.836868299999999</v>
+        <v>50.8738253</v>
       </c>
       <c r="D15">
-        <v>2.9430982000000001</v>
+        <v>3.4516119999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3">
         <v>5377</v>
       </c>
       <c r="C16">
-        <v>50.834597199999997</v>
+        <v>50.836868299999999</v>
       </c>
       <c r="D16">
-        <v>2.9450080999999999</v>
+        <v>2.9430982000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3">
         <v>5378</v>
       </c>
       <c r="C17">
-        <v>50.900232099999997</v>
+        <v>50.834597199999997</v>
       </c>
       <c r="D17">
-        <v>2.9857155</v>
+        <v>2.9450080999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3">
         <v>5379</v>
       </c>
       <c r="C18">
-        <v>50.8512232</v>
+        <v>50.900232099999997</v>
       </c>
       <c r="D18">
-        <v>2.8835454</v>
+        <v>2.9857155</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B19" s="3">
         <v>5380</v>
       </c>
       <c r="C19">
-        <v>50.851997099999998</v>
+        <v>50.8512232</v>
       </c>
       <c r="D19">
-        <v>2.8889439000000001</v>
+        <v>2.8835449999999998</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3">
         <v>5381</v>
       </c>
       <c r="C20">
-        <v>51.030815799999999</v>
+        <v>50.8512232</v>
       </c>
       <c r="D20">
-        <v>2.3730861999999999</v>
+        <v>2.8835454</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>5382</v>
       </c>
       <c r="C21">
-        <v>49.9200491</v>
+        <v>50.851997099999998</v>
       </c>
       <c r="D21">
-        <v>1.0659799000000001</v>
+        <v>2.8889439000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="C22">
-        <v>49.231104500000001</v>
+        <v>51.030815799999999</v>
       </c>
       <c r="D22">
-        <v>-0.25844319999999998</v>
+        <v>2.3730861999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3">
-        <v>5383</v>
+        <v>5384</v>
       </c>
       <c r="C23">
-        <v>49.337782099999998</v>
+        <v>49.9200491</v>
       </c>
       <c r="D23">
-        <v>-0.47135320000000003</v>
+        <v>1.0659799000000001</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" s="3">
         <v>5385</v>
       </c>
       <c r="C24">
+        <v>49.231104500000001</v>
+      </c>
+      <c r="D24">
+        <v>-0.25844319999999998</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5386</v>
+      </c>
+      <c r="C25">
+        <v>49.337782099999998</v>
+      </c>
+      <c r="D25">
+        <v>-0.47135320000000003</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5387</v>
+      </c>
+      <c r="C26">
+        <v>49.119118700000001</v>
+      </c>
+      <c r="D26">
+        <v>-0.57123729999999995</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5388</v>
+      </c>
+      <c r="C27">
         <v>48.95</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>2.476</v>
       </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>86</v>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{44DE2D67-2817-4E6C-B89A-6E959E4741DD}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{73A9BDC4-0B9D-4251-9710-6B1180BF3565}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{73A9BDC4-0B9D-4251-9710-6B1180BF3565}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{191D461A-9670-4581-A5EA-3653AF3B94BA}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{6B965CE7-3B25-49B4-A59F-A2D199B1F919}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{82204DB8-4D6E-4ADD-A5C3-5024EE0A6EF3}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{4E9FA705-6F2C-4D19-9A7F-A1CFF275365E}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{777B4020-57F1-4CE5-9F55-3A58DD4BFC3D}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{C86D6057-1A22-4B12-86F6-0825CDFC3D7D}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{E79159E4-4558-49AB-A74E-90713567DD77}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{2663F8D8-AA7B-40DA-A3B1-4A8933367F0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>